--- a/Cloud Labs Login Credentials - Dynatrace (B2) - 26-30 May 2025 - BOA.xlsx
+++ b/Cloud Labs Login Credentials - Dynatrace (B2) - 26-30 May 2025 - BOA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\BOA_DT_26_05_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A1E9B4-0490-4A52-8CC5-B411E1A845E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022B0BD2-BE06-4B8C-A2A6-E6AC7DF59ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud Labs Creds 26-30 May 2025" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="164">
   <si>
     <t>Username</t>
   </si>
@@ -440,6 +440,93 @@
   </si>
   <si>
     <t>IP ADDRESS</t>
+  </si>
+  <si>
+    <t>3.17.77.249</t>
+  </si>
+  <si>
+    <t>3.138.138.91</t>
+  </si>
+  <si>
+    <t>18.216.236.178</t>
+  </si>
+  <si>
+    <t>3.142.252.109</t>
+  </si>
+  <si>
+    <t>3.14.250.223</t>
+  </si>
+  <si>
+    <t>3.144.26.49</t>
+  </si>
+  <si>
+    <t>3.148.253.90</t>
+  </si>
+  <si>
+    <t>3.144.242.173</t>
+  </si>
+  <si>
+    <t>3.142.54.252</t>
+  </si>
+  <si>
+    <t>3.17.75.148</t>
+  </si>
+  <si>
+    <t>18.223.206.132</t>
+  </si>
+  <si>
+    <t>18.224.31.195</t>
+  </si>
+  <si>
+    <t>3.149.7.11</t>
+  </si>
+  <si>
+    <t>18.119.114.162</t>
+  </si>
+  <si>
+    <t>18.191.144.52</t>
+  </si>
+  <si>
+    <t>18.117.9.206</t>
+  </si>
+  <si>
+    <t>3.128.31.205</t>
+  </si>
+  <si>
+    <t>3.15.150.158</t>
+  </si>
+  <si>
+    <t>3.143.203.5</t>
+  </si>
+  <si>
+    <t>3.17.174.155</t>
+  </si>
+  <si>
+    <t>3.16.79.98</t>
+  </si>
+  <si>
+    <t>52.14.219.164</t>
+  </si>
+  <si>
+    <t>13.58.231.30</t>
+  </si>
+  <si>
+    <t>3.143.241.42</t>
+  </si>
+  <si>
+    <t>18.225.149.4</t>
+  </si>
+  <si>
+    <t>18.118.154.25</t>
+  </si>
+  <si>
+    <t>3.135.193.114</t>
+  </si>
+  <si>
+    <t>18.188.188.99</t>
+  </si>
+  <si>
+    <t>IP ADDRESS2</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1195,7 @@
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1131,6 +1218,26 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,28 +1259,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1275,7 +1360,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1323975</xdr:colOff>
+      <xdr:colOff>1312545</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>436245</xdr:rowOff>
     </xdr:to>
@@ -1621,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1632,56 +1717,58 @@
     <col min="3" max="3" width="22" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:7" ht="21.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
@@ -1699,6 +1786,9 @@
       <c r="E6" s="9" t="s">
         <v>134</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
@@ -1713,8 +1803,11 @@
       <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="14" t="s">
         <v>133</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -1730,10 +1823,12 @@
       <c r="D8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
@@ -1748,8 +1843,11 @@
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="14" t="s">
         <v>79</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -1765,8 +1863,11 @@
       <c r="D10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="14" t="s">
         <v>71</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -1782,8 +1883,11 @@
       <c r="D11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="14" t="s">
         <v>72</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -1799,8 +1903,11 @@
       <c r="D12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="14" t="s">
         <v>73</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -1816,8 +1923,11 @@
       <c r="D13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="14" t="s">
         <v>84</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -1833,8 +1943,11 @@
       <c r="D14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="14" t="s">
         <v>86</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -1850,8 +1963,11 @@
       <c r="D15" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="14" t="s">
         <v>88</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -1867,11 +1983,14 @@
       <c r="D16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="14" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G16" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>11</v>
       </c>
@@ -1884,11 +2003,14 @@
       <c r="D17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="14" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G17" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>12</v>
       </c>
@@ -1901,11 +2023,14 @@
       <c r="D18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G18" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>13</v>
       </c>
@@ -1918,11 +2043,14 @@
       <c r="D19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G19" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>14</v>
       </c>
@@ -1935,11 +2063,14 @@
       <c r="D20" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G20" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>15</v>
       </c>
@@ -1952,11 +2083,14 @@
       <c r="D21" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="14" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G21" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>16</v>
       </c>
@@ -1969,11 +2103,14 @@
       <c r="D22" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="14" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G22" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>17</v>
       </c>
@@ -1986,11 +2123,14 @@
       <c r="D23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="14" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G23" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>18</v>
       </c>
@@ -2003,11 +2143,14 @@
       <c r="D24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G24" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>19</v>
       </c>
@@ -2020,11 +2163,14 @@
       <c r="D25" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="14" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G25" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>20</v>
       </c>
@@ -2037,11 +2183,14 @@
       <c r="D26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="14" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G26" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>21</v>
       </c>
@@ -2054,11 +2203,14 @@
       <c r="D27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="14" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G27" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>22</v>
       </c>
@@ -2071,11 +2223,14 @@
       <c r="D28" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="26" t="s">
+      <c r="E28" s="14" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G28" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>23</v>
       </c>
@@ -2088,11 +2243,14 @@
       <c r="D29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G29" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>24</v>
       </c>
@@ -2105,11 +2263,14 @@
       <c r="D30" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E30" s="14" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G30" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>25</v>
       </c>
@@ -2122,11 +2283,14 @@
       <c r="D31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="14" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G31" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>26</v>
       </c>
@@ -2139,11 +2303,14 @@
       <c r="D32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G32" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>27</v>
       </c>
@@ -2156,25 +2323,31 @@
       <c r="D33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="14" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="23">
+      <c r="G33" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" s="11">
         <v>28</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="13" t="s">
         <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>126</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2207,7 +2380,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
@@ -2222,7 +2395,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" t="s">
         <v>76</v>
       </c>
       <c r="B2" t="s">
@@ -2239,7 +2412,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" t="s">
         <v>76</v>
       </c>
       <c r="B3" t="s">
@@ -2256,7 +2429,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" t="s">
         <v>76</v>
       </c>
       <c r="B4" t="s">
@@ -2273,7 +2446,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" t="s">
         <v>76</v>
       </c>
       <c r="B5" t="s">
@@ -2290,7 +2463,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" t="s">
         <v>76</v>
       </c>
       <c r="B6" t="s">
@@ -2307,7 +2480,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" t="s">
         <v>76</v>
       </c>
       <c r="B7" t="s">
@@ -2324,7 +2497,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" t="s">
         <v>76</v>
       </c>
       <c r="B8" t="s">
@@ -2341,7 +2514,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" t="s">
         <v>76</v>
       </c>
       <c r="B9" t="s">
@@ -2358,7 +2531,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" t="s">
         <v>76</v>
       </c>
       <c r="B10" t="s">
@@ -2375,7 +2548,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" t="s">
         <v>76</v>
       </c>
       <c r="B11" t="s">
@@ -2392,7 +2565,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" t="s">
         <v>76</v>
       </c>
       <c r="B12" t="s">
@@ -2409,7 +2582,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" t="s">
         <v>76</v>
       </c>
       <c r="B13" t="s">
@@ -2426,7 +2599,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" t="s">
         <v>76</v>
       </c>
       <c r="B14" t="s">
@@ -2443,7 +2616,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" t="s">
         <v>76</v>
       </c>
       <c r="B15" t="s">
@@ -2460,7 +2633,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" t="s">
         <v>76</v>
       </c>
       <c r="B16" t="s">
@@ -2477,7 +2650,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" t="s">
         <v>76</v>
       </c>
       <c r="B17" t="s">
@@ -2494,7 +2667,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" t="s">
         <v>76</v>
       </c>
       <c r="B18" t="s">
@@ -2511,7 +2684,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
+      <c r="A19" t="s">
         <v>76</v>
       </c>
       <c r="B19" t="s">
@@ -2528,7 +2701,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" t="s">
         <v>76</v>
       </c>
       <c r="B20" t="s">
@@ -2545,7 +2718,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" t="s">
         <v>76</v>
       </c>
       <c r="B21" t="s">
@@ -2562,7 +2735,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" t="s">
         <v>76</v>
       </c>
       <c r="B22" t="s">
@@ -2579,7 +2752,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" t="s">
         <v>76</v>
       </c>
       <c r="B23" t="s">
@@ -2596,7 +2769,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" t="s">
         <v>76</v>
       </c>
       <c r="B24" t="s">
@@ -2613,7 +2786,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" t="s">
         <v>76</v>
       </c>
       <c r="B25" t="s">
@@ -2630,7 +2803,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+      <c r="A26" t="s">
         <v>76</v>
       </c>
       <c r="B26" t="s">
@@ -2647,7 +2820,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" t="s">
         <v>76</v>
       </c>
       <c r="B27" t="s">
@@ -2664,7 +2837,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" t="s">
         <v>76</v>
       </c>
       <c r="B28" t="s">
@@ -2681,7 +2854,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" t="s">
         <v>127</v>
       </c>
       <c r="B29" t="s">
@@ -2698,7 +2871,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" t="s">
         <v>131</v>
       </c>
       <c r="B30" t="s">

--- a/Cloud Labs Login Credentials - Dynatrace (B2) - 26-30 May 2025 - BOA.xlsx
+++ b/Cloud Labs Login Credentials - Dynatrace (B2) - 26-30 May 2025 - BOA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VK_GIT\BOA_DT_26_05_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022B0BD2-BE06-4B8C-A2A6-E6AC7DF59ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E997F0-E728-47BC-B5CA-D3266EBB64F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -442,91 +442,91 @@
     <t>IP ADDRESS</t>
   </si>
   <si>
-    <t>3.17.77.249</t>
-  </si>
-  <si>
-    <t>3.138.138.91</t>
-  </si>
-  <si>
-    <t>18.216.236.178</t>
-  </si>
-  <si>
-    <t>3.142.252.109</t>
-  </si>
-  <si>
-    <t>3.14.250.223</t>
-  </si>
-  <si>
-    <t>3.144.26.49</t>
-  </si>
-  <si>
-    <t>3.148.253.90</t>
-  </si>
-  <si>
-    <t>3.144.242.173</t>
-  </si>
-  <si>
-    <t>3.142.54.252</t>
-  </si>
-  <si>
-    <t>3.17.75.148</t>
-  </si>
-  <si>
-    <t>18.223.206.132</t>
-  </si>
-  <si>
-    <t>18.224.31.195</t>
-  </si>
-  <si>
-    <t>3.149.7.11</t>
-  </si>
-  <si>
-    <t>18.119.114.162</t>
-  </si>
-  <si>
-    <t>18.191.144.52</t>
-  </si>
-  <si>
-    <t>18.117.9.206</t>
-  </si>
-  <si>
-    <t>3.128.31.205</t>
-  </si>
-  <si>
-    <t>3.15.150.158</t>
-  </si>
-  <si>
-    <t>3.143.203.5</t>
-  </si>
-  <si>
-    <t>3.17.174.155</t>
-  </si>
-  <si>
-    <t>3.16.79.98</t>
-  </si>
-  <si>
-    <t>52.14.219.164</t>
-  </si>
-  <si>
-    <t>13.58.231.30</t>
-  </si>
-  <si>
-    <t>3.143.241.42</t>
-  </si>
-  <si>
-    <t>18.225.149.4</t>
-  </si>
-  <si>
-    <t>18.118.154.25</t>
-  </si>
-  <si>
-    <t>3.135.193.114</t>
-  </si>
-  <si>
-    <t>18.188.188.99</t>
-  </si>
-  <si>
     <t>IP ADDRESS2</t>
+  </si>
+  <si>
+    <t>18.217.246.251</t>
+  </si>
+  <si>
+    <t>3.15.20.21</t>
+  </si>
+  <si>
+    <t>18.117.216.13</t>
+  </si>
+  <si>
+    <t>3.21.170.239</t>
+  </si>
+  <si>
+    <t>3.129.13.215</t>
+  </si>
+  <si>
+    <t>18.219.205.208</t>
+  </si>
+  <si>
+    <t>18.219.224.190</t>
+  </si>
+  <si>
+    <t>3.16.157.216</t>
+  </si>
+  <si>
+    <t>3.18.106.134</t>
+  </si>
+  <si>
+    <t>18.220.16.117</t>
+  </si>
+  <si>
+    <t>3.19.71.203</t>
+  </si>
+  <si>
+    <t>18.217.180.117</t>
+  </si>
+  <si>
+    <t>18.219.78.103</t>
+  </si>
+  <si>
+    <t>18.116.231.101</t>
+  </si>
+  <si>
+    <t>18.219.140.218</t>
+  </si>
+  <si>
+    <t>3.14.83.24</t>
+  </si>
+  <si>
+    <t>13.58.94.92</t>
+  </si>
+  <si>
+    <t>3.15.210.125</t>
+  </si>
+  <si>
+    <t>3.131.100.128</t>
+  </si>
+  <si>
+    <t>3.143.216.155</t>
+  </si>
+  <si>
+    <t>3.144.129.252</t>
+  </si>
+  <si>
+    <t>3.137.155.97</t>
+  </si>
+  <si>
+    <t>3.144.149.41</t>
+  </si>
+  <si>
+    <t>3.133.86.252</t>
+  </si>
+  <si>
+    <t>3.143.243.235</t>
+  </si>
+  <si>
+    <t>52.14.99.68</t>
+  </si>
+  <si>
+    <t>3.14.71.203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.118.148.119 </t>
   </si>
 </sst>
 </file>
@@ -1360,9 +1360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1312545</xdr:colOff>
+      <xdr:colOff>1316355</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>436245</xdr:rowOff>
+      <xdr:rowOff>440055</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1706,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.2" x14ac:dyDescent="0.45"/>
@@ -1718,7 +1718,7 @@
     <col min="4" max="4" width="22.33203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="3"/>
-    <col min="7" max="7" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
@@ -1787,7 +1787,7 @@
         <v>134</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
@@ -1807,7 +1807,7 @@
         <v>133</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
